--- a/results_magic/classification_result.xlsx
+++ b/results_magic/classification_result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Crazyconv/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Crazyconv/Conv/DEVELOPMENT/GitFolder/Word2Vec2NLP/results_magic/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="940" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
-  <si>
-    <t>word2vec</t>
-  </si>
-  <si>
-    <t>word2vec + senticNet</t>
-  </si>
-  <si>
-    <t>nlp</t>
-  </si>
-  <si>
-    <t>nlp + senticNet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>random forest</t>
   </si>
@@ -57,6 +45,30 @@
   </si>
   <si>
     <t>F-SCORE</t>
+  </si>
+  <si>
+    <t>Notation</t>
+  </si>
+  <si>
+    <t>NPLF-S</t>
+  </si>
+  <si>
+    <t>W-A</t>
+  </si>
+  <si>
+    <t>W-A-S</t>
+  </si>
+  <si>
+    <t>Word Averaging</t>
+  </si>
+  <si>
+    <t>Word Averaging + SentiWordNet</t>
+  </si>
+  <si>
+    <t>NPLF+SentiWordNet</t>
+  </si>
+  <si>
+    <t>NPLF</t>
   </si>
 </sst>
 </file>
@@ -64,9 +76,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,13 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -142,32 +147,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D31" sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,325 +483,367 @@
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.94222222222200003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.91777777777799996</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.90888888888899999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.944444444444</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.95555555555600002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.91333333333300004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.95555555555600002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.94888888888900003</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.94666666666699995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.944444444444</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.94666666666699995</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.73111111111100002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.94333333333299996</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.92333333333300005</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.91666666666700003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.95666666666699995</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.95333333333299997</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.95333333333299997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.94666666666699995</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.94666666666699995</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.78666666666700003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.94333333333299996</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.90666666666700002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.94333333333299996</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.95333333333299997</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.91333333333300004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.95333333333299997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.94333333333299996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.94666666666699995</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.94666666666699995</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.94222222222200003</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.91777777777799996</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.90888888888899999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.944444444444</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.95555555555600002</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.94333333333299996</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.90666666666700002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.94333333333299996</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.95333333333299997</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.91333333333300004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.95555555555600002</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.94888888888900003</v>
-      </c>
-      <c r="D5" s="5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.95333333333299997</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.94333333333299996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3">
         <v>0.94666666666699995</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.944444444444</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="C31" s="3">
         <v>0.94666666666699995</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.73111111111100002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.94333333333299996</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.92333333333300005</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.91666666666700003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.95666666666699995</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.95333333333299997</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.95333333333299997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.94666666666699995</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.94666666666699995</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.78666666666700003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.94333333333299996</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.90666666666700002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.94333333333299996</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.95333333333299997</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.91333333333300004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.95333333333299997</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.94333333333299996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.94666666666699995</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.94666666666699995</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.94333333333299996</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.90666666666700002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.94333333333299996</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.95333333333299997</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.91333333333300004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.95333333333299997</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.94333333333299996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.94666666666699995</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.94666666666699995</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="D31" s="2">
         <v>0.70666666666699995</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
